--- a/@ DE 2/Eksplorasi/Data.xlsx
+++ b/@ DE 2/Eksplorasi/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fathan\Documents\Obsidian Vault\2. Kuliah\Smt 6\4. Data Challange\@ DE 2\Eksplorasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC83209E-830C-4620-A69C-DFD2813B47B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FC65B9-F2AE-4692-AB7E-DD8C740AAA45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43095" yWindow="1845" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31905" yWindow="4035" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataViz" sheetId="1" r:id="rId1"/>
@@ -259,7 +259,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,6 +284,65 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF800000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Mangal"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="16">
@@ -432,10 +491,68 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -488,9 +605,63 @@
     <xf numFmtId="0" fontId="3" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in " xfId="12" xr:uid="{2F920C79-7E5A-4FE3-B209-DDB68C5364E3}"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel B" xfId="13" xr:uid="{5E1DEB1B-30C6-4F55-B6BD-3ECD79A2F6A6}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{27556C4A-AEF6-4E5B-A37D-AE841029B5E2}"/>
+    <cellStyle name="Normal 2 2" xfId="4" xr:uid="{CD4E5FB5-213D-49CE-94FF-03C377BFDBD8}"/>
+    <cellStyle name="Normal 2 2 2" xfId="14" xr:uid="{E99A1625-1C98-45E4-9BAE-52554AC9E79A}"/>
+    <cellStyle name="Normal 2 2 2 2" xfId="15" xr:uid="{A315859B-1BCF-40DF-B40B-B160C25D86C1}"/>
+    <cellStyle name="Normal 2 2 2 3" xfId="16" xr:uid="{E6C3BC66-D857-420F-85CA-B8E496AF770D}"/>
+    <cellStyle name="Normal 2 2 3" xfId="17" xr:uid="{34983C9F-9D39-47CB-AE18-AFB35C6EEB8F}"/>
+    <cellStyle name="Normal 2 2 3 2" xfId="18" xr:uid="{7CDF4C9B-39D8-4161-B40D-46DF46751E57}"/>
+    <cellStyle name="Normal 2 2 3 2 2" xfId="19" xr:uid="{206BFBF8-3131-4634-8E2F-2F336B01F37A}"/>
+    <cellStyle name="Normal 2 2 3 2 2 2" xfId="20" xr:uid="{C74797E5-4790-40E1-B558-7868E4B40052}"/>
+    <cellStyle name="Normal 2 2 3 2 2 2 2" xfId="21" xr:uid="{841D905A-4B40-45A6-AD3A-2433A83230A2}"/>
+    <cellStyle name="Normal 2 2 3 2 2 2 2 2" xfId="22" xr:uid="{914660DD-C0D6-4D01-9B73-07C9D66BC43D}"/>
+    <cellStyle name="Normal 2 2 3 2 2 2 2 3" xfId="23" xr:uid="{87C782B6-C901-4D74-ABF0-860E5B232FB5}"/>
+    <cellStyle name="Normal 2 2 3 2 2 2 2 3 2" xfId="24" xr:uid="{F357A279-BEE6-423D-927E-DCFD8574B10F}"/>
+    <cellStyle name="Normal 2 2 3 2 2 2 2 3 3" xfId="25" xr:uid="{FD384442-09A9-443D-BF53-099B5D778282}"/>
+    <cellStyle name="Normal 2 2 3 2 2 2 2 3 3 2" xfId="26" xr:uid="{FAE47D2C-7880-4A7F-A76C-34CA82E75BB7}"/>
+    <cellStyle name="Normal 2 2 3 2 2 2 2 3 3 2 2" xfId="27" xr:uid="{810147B8-7744-400B-A95C-C49ABD39CA47}"/>
+    <cellStyle name="Normal 2 2 3 2 2 2 2 3 3 2 2 2" xfId="28" xr:uid="{5EE24D56-406F-4073-B5D9-F2E992A51143}"/>
+    <cellStyle name="Normal 2 2 3 2 2 2 2 3 3 2 2 2 2" xfId="29" xr:uid="{8ACE94DB-44C4-43E2-81AF-96A5EDB169B7}"/>
+    <cellStyle name="Normal 2 2 3 2 2 2 2 3 3 2 2 2 2 2" xfId="30" xr:uid="{C37B0139-BA3B-4A1C-B996-B1B4584F7C1C}"/>
+    <cellStyle name="Normal 2 2 3 2 2 2 2 3 3 2 2 2 2 2 2" xfId="31" xr:uid="{BBF2D767-2023-4B93-837D-95920A89318E}"/>
+    <cellStyle name="Normal 2 2 3 2 2 2 2 3 3 2 2 2 2 2 2 2" xfId="32" xr:uid="{5C23E3CB-B64B-44BD-835F-90AACF8E53DE}"/>
+    <cellStyle name="Normal 2 2 3 2 2 2 2 3 3 2 2 2 2 2 2 3" xfId="33" xr:uid="{BA77E782-D071-4693-AB6C-B9FD319059BB}"/>
+    <cellStyle name="Normal 2 2 3 2 2 2 2 3 3 2 2 2 2 2 2 3 2" xfId="34" xr:uid="{E20D6469-BB4E-4949-AF4B-C913BDDEA29C}"/>
+    <cellStyle name="Normal 2 2 3 2 2 2 2 3 3 2 2 2 2 2 2 3 2 2" xfId="35" xr:uid="{98C6A634-C2F7-421B-A4A8-1EF347D804C8}"/>
+    <cellStyle name="Normal 2 2 3 2 2 2 2 3 3 2 2 2 2 2 2 3 2 2 2" xfId="36" xr:uid="{6C1E213D-F37F-41ED-A3B6-E5F36EBFD4F8}"/>
+    <cellStyle name="Normal 2 2 3 2 2 2 2 3 3 2 2 2 2 2 2 3 2 2 2 2" xfId="37" xr:uid="{D060A768-2E63-464A-8E72-2397B0A124A6}"/>
+    <cellStyle name="Normal 2 2 3 2 2 2 2 3 3 2 2 2 2 2 2 3 2 2 2 2 2" xfId="38" xr:uid="{50535C9A-7CF4-4CCC-8AB6-251DB10BEB67}"/>
+    <cellStyle name="Normal 2 2 3 2 2 2 2 3 3 2 2 2 2 2 2 3 2 2 2 2 2 2" xfId="39" xr:uid="{E508F171-B8C0-4B33-9DAE-543B7F7FCA73}"/>
+    <cellStyle name="Normal 2 3" xfId="5" xr:uid="{69E4358A-6B12-4FCB-B038-9897567A6064}"/>
+    <cellStyle name="Normal 2 4" xfId="6" xr:uid="{9BAE98BB-BBB8-40F5-8C0C-12BA4FA3C2B7}"/>
+    <cellStyle name="Normal 2 5" xfId="40" xr:uid="{FDE8765D-BBEB-456D-9A90-3C6BC62EC255}"/>
+    <cellStyle name="Normal 3" xfId="7" xr:uid="{8A8211CD-84DB-4B0F-89B1-165F354658B4}"/>
+    <cellStyle name="Normal 3 2" xfId="8" xr:uid="{485117F0-E10B-40D0-B39C-7ACA7DFAFBD3}"/>
+    <cellStyle name="Normal 3 2 2" xfId="41" xr:uid="{A0B0F354-866B-46DE-9C28-00EC636E540E}"/>
+    <cellStyle name="Normal 3 3" xfId="42" xr:uid="{E6ED441B-1D00-4BB7-AF61-D34FDBED084B}"/>
+    <cellStyle name="Normal 4" xfId="9" xr:uid="{96B3B629-12C8-4403-9625-A39FA3CFB615}"/>
+    <cellStyle name="Normal 4 2" xfId="43" xr:uid="{0148F07B-3DE4-4546-8DA4-1C78044E6D9E}"/>
+    <cellStyle name="Normal 4 3" xfId="44" xr:uid="{8231F9F2-6871-4E43-BFC7-CBB8A8B9C263}"/>
+    <cellStyle name="Normal 5" xfId="11" xr:uid="{59DFA9B3-FA18-4FF8-A178-4E983209688E}"/>
+    <cellStyle name="Normal 6" xfId="45" xr:uid="{CD852C6A-A478-46A3-A55A-8AD335DDECAA}"/>
+    <cellStyle name="Normal 7" xfId="46" xr:uid="{C476F2F1-4DAE-46B8-B312-2338AC69BF50}"/>
+    <cellStyle name="Normal 8" xfId="47" xr:uid="{24678228-5AC8-4F95-A548-332CFDE17284}"/>
+    <cellStyle name="Normal 8 2" xfId="48" xr:uid="{A7941A43-A0D1-4FA1-A7AB-000466C2607F}"/>
+    <cellStyle name="Normal 9" xfId="1" xr:uid="{0E23F7F6-E144-4F2C-8059-A008D14E1016}"/>
+    <cellStyle name="Style 1 2" xfId="10" xr:uid="{82C272A4-46DB-466C-94C8-3CAAA3E6044E}"/>
+    <cellStyle name="TableStyleLight1" xfId="3" xr:uid="{2A792358-28F1-4743-ADED-EE944C235AED}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -770,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -819,7 +990,7 @@
       <c r="E2" s="3">
         <v>662.82466455700364</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="18">
         <v>5120.7907624265681</v>
       </c>
     </row>
@@ -839,7 +1010,7 @@
       <c r="E3" s="3">
         <v>580.3068218961871</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="18">
         <v>4774.5360357072577</v>
       </c>
     </row>
@@ -859,7 +1030,7 @@
       <c r="E4" s="3">
         <v>500.43998555739068</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="18">
         <v>4223.3090383948602</v>
       </c>
     </row>
@@ -879,7 +1050,7 @@
       <c r="E5" s="3">
         <v>530.96851811795079</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="18">
         <v>4745.3448469102459</v>
       </c>
     </row>
@@ -899,7 +1070,7 @@
       <c r="E6" s="3">
         <v>469.06356582256524</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="18">
         <v>5366.2355415792808</v>
       </c>
     </row>
@@ -919,7 +1090,7 @@
       <c r="E7" s="3">
         <v>503.47195751448515</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="18">
         <v>6021.7599322806727</v>
       </c>
     </row>
@@ -939,7 +1110,7 @@
       <c r="E8" s="3">
         <v>22.237741248290028</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="18">
         <v>81.947469361400081</v>
       </c>
     </row>
@@ -959,7 +1130,7 @@
       <c r="E9" s="3">
         <v>26.928588674241013</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="18">
         <v>81.852787413262902</v>
       </c>
     </row>
@@ -979,7 +1150,7 @@
       <c r="E10" s="3">
         <v>95.015934172598008</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="18">
         <v>81.84150685148191</v>
       </c>
     </row>
@@ -999,7 +1170,7 @@
       <c r="E11" s="3">
         <v>82.774005692889062</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="18">
         <v>81.910446481126513</v>
       </c>
     </row>
@@ -1019,7 +1190,7 @@
       <c r="E12" s="3">
         <v>43.438715404283862</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="18">
         <v>81.932231001697176</v>
       </c>
     </row>
@@ -1039,7 +1210,7 @@
       <c r="E13" s="3">
         <v>43.566101673635316</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="18">
         <v>82.069086745527954</v>
       </c>
     </row>
@@ -1059,7 +1230,7 @@
       <c r="E14" s="3">
         <v>777.09963097977277</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="18">
         <v>141.06511370502488</v>
       </c>
     </row>
@@ -1079,7 +1250,7 @@
       <c r="E15" s="3">
         <v>670.93803908100983</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="18">
         <v>157.21181613856803</v>
       </c>
     </row>
@@ -1099,7 +1270,7 @@
       <c r="E16" s="3">
         <v>393.51089744333859</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="18">
         <v>130.66688638924066</v>
       </c>
     </row>
@@ -1119,7 +1290,7 @@
       <c r="E17" s="3">
         <v>462.15775896924345</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="18">
         <v>119.45900881737744</v>
       </c>
     </row>
@@ -1139,7 +1310,7 @@
       <c r="E18" s="3">
         <v>499.38515849502426</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="18">
         <v>153.65657383790455</v>
       </c>
     </row>
@@ -1159,7 +1330,7 @@
       <c r="E19" s="3">
         <v>478.88011613765502</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="18">
         <v>133.44895727002125</v>
       </c>
     </row>
@@ -1179,7 +1350,7 @@
       <c r="E20" s="3">
         <v>497.93480556153793</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="18">
         <v>476.66730379682139</v>
       </c>
     </row>
@@ -1199,7 +1370,7 @@
       <c r="E21" s="3">
         <v>418.55192164546116</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="18">
         <v>501.38514292508728</v>
       </c>
     </row>
@@ -1219,7 +1390,7 @@
       <c r="E22" s="3">
         <v>353.31549110852097</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="18">
         <v>490.35474414275086</v>
       </c>
     </row>
@@ -1239,7 +1410,7 @@
       <c r="E23" s="3">
         <v>387.76468636281061</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="18">
         <v>499.12575634501235</v>
       </c>
     </row>
@@ -1259,7 +1430,7 @@
       <c r="E24" s="3">
         <v>651.62623964823104</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="18">
         <v>501.52497925519259</v>
       </c>
     </row>
@@ -1279,7 +1450,7 @@
       <c r="E25" s="3">
         <v>595.05518762685813</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="18">
         <v>499.55799255868595</v>
       </c>
     </row>
@@ -1299,7 +1470,7 @@
       <c r="E26" s="3">
         <v>6.984904636573563</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="18">
         <v>1056.4759813609239</v>
       </c>
     </row>
@@ -1319,7 +1490,7 @@
       <c r="E27" s="3">
         <v>8.3418093464832683</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="18">
         <v>1220.3867044008857</v>
       </c>
     </row>
@@ -1339,7 +1510,7 @@
       <c r="E28" s="3">
         <v>8.596110301598765</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="18">
         <v>1144.4018948912976</v>
       </c>
     </row>
@@ -1359,7 +1530,7 @@
       <c r="E29" s="3">
         <v>7.6840475395742232</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="18">
         <v>1262.7462449778302</v>
       </c>
     </row>
@@ -1379,7 +1550,7 @@
       <c r="E30" s="3">
         <v>8.3536928982805474</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="18">
         <v>1242.3476105203979</v>
       </c>
     </row>
@@ -1399,7 +1570,7 @@
       <c r="E31" s="3">
         <v>6.98502890320243</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="18">
         <v>1324.5426809205396</v>
       </c>
     </row>
@@ -1419,7 +1590,7 @@
       <c r="E32" s="3">
         <v>734.56250672501915</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="18">
         <v>2079.7853062948457</v>
       </c>
     </row>
@@ -1439,7 +1610,7 @@
       <c r="E33" s="3">
         <v>687.27317372789446</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="18">
         <v>1837.9934442892038</v>
       </c>
     </row>
@@ -1459,7 +1630,7 @@
       <c r="E34" s="3">
         <v>435.97245551768651</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="18">
         <v>1857.948849148316</v>
       </c>
     </row>
@@ -1479,7 +1650,7 @@
       <c r="E35" s="3">
         <v>386.72880843716666</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="18">
         <v>1832.2719887567523</v>
       </c>
     </row>
@@ -1499,7 +1670,7 @@
       <c r="E36" s="3">
         <v>398.42713255381653</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="18">
         <v>1857.7472333656262</v>
       </c>
     </row>
@@ -1519,7 +1690,7 @@
       <c r="E37" s="3">
         <v>363.39161137115553</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="18">
         <v>1842.7532076471834</v>
       </c>
     </row>
@@ -1539,8 +1710,8 @@
       <c r="E38" s="3">
         <v>163.84358228948525</v>
       </c>
-      <c r="F38" s="3">
-        <v>163.84358228948525</v>
+      <c r="F38" s="19">
+        <v>1319.8499595982312</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1559,8 +1730,8 @@
       <c r="E39" s="3">
         <v>135.78787376164863</v>
       </c>
-      <c r="F39" s="3">
-        <v>135.78787376164863</v>
+      <c r="F39" s="19">
+        <v>1287.7732298654978</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1579,8 +1750,8 @@
       <c r="E40" s="3">
         <v>137.19723650913997</v>
       </c>
-      <c r="F40" s="3">
-        <v>137.19723650913997</v>
+      <c r="F40" s="19">
+        <v>1351.8666799605992</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1599,8 +1770,8 @@
       <c r="E41" s="3">
         <v>135.03312029291979</v>
       </c>
-      <c r="F41" s="3">
-        <v>135.03312029291979</v>
+      <c r="F41" s="19">
+        <v>1376.3653341150289</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1619,8 +1790,8 @@
       <c r="E42" s="3">
         <v>130.98039050099408</v>
       </c>
-      <c r="F42" s="3">
-        <v>130.98039050099408</v>
+      <c r="F42" s="19">
+        <v>1331.7775239113384</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1639,8 +1810,8 @@
       <c r="E43" s="3">
         <v>117.39177092646159</v>
       </c>
-      <c r="F43" s="3">
-        <v>117.39177092646159</v>
+      <c r="F43" s="19">
+        <v>1333.3622516185592</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1659,8 +1830,8 @@
       <c r="E44" s="3">
         <v>126.46962877751753</v>
       </c>
-      <c r="F44" s="3">
-        <v>126.46962877751753</v>
+      <c r="F44" s="19">
+        <v>173.12145650324345</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1679,8 +1850,8 @@
       <c r="E45" s="3">
         <v>122.65799449286962</v>
       </c>
-      <c r="F45" s="3">
-        <v>122.65799449286962</v>
+      <c r="F45" s="19">
+        <v>174.83498914109873</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1699,8 +1870,8 @@
       <c r="E46" s="3">
         <v>125.02677662487913</v>
       </c>
-      <c r="F46" s="3">
-        <v>125.02677662487913</v>
+      <c r="F46" s="19">
+        <v>167.97192042365765</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1719,8 +1890,8 @@
       <c r="E47" s="3">
         <v>124.07174772475223</v>
       </c>
-      <c r="F47" s="3">
-        <v>124.07174772475223</v>
+      <c r="F47" s="19">
+        <v>165.00196075603853</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1739,8 +1910,8 @@
       <c r="E48" s="3">
         <v>101.2550772543416</v>
       </c>
-      <c r="F48" s="3">
-        <v>101.2550772543416</v>
+      <c r="F48" s="19">
+        <v>118.96846376891436</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1759,8 +1930,8 @@
       <c r="E49" s="3">
         <v>100.90681873775969</v>
       </c>
-      <c r="F49" s="3">
-        <v>100.90681873775969</v>
+      <c r="F49" s="19">
+        <v>117.27068815282445</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1779,8 +1950,8 @@
       <c r="E50" s="3">
         <v>103.06474783142525</v>
       </c>
-      <c r="F50" s="3">
-        <v>103.06474783142525</v>
+      <c r="F50" s="19">
+        <v>2082.1076320628154</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1799,8 +1970,8 @@
       <c r="E51" s="3">
         <v>106.15962212585146</v>
       </c>
-      <c r="F51" s="3">
-        <v>106.15962212585146</v>
+      <c r="F51" s="19">
+        <v>2010.4632690709489</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1819,8 +1990,8 @@
       <c r="E52" s="3">
         <v>108.78187623518455</v>
       </c>
-      <c r="F52" s="3">
-        <v>108.78187623518455</v>
+      <c r="F52" s="19">
+        <v>2051.0360442980395</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1839,8 +2010,8 @@
       <c r="E53" s="3">
         <v>107.43582372297936</v>
       </c>
-      <c r="F53" s="3">
-        <v>107.43582372297936</v>
+      <c r="F53" s="19">
+        <v>2105.6217670454894</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1859,8 +2030,8 @@
       <c r="E54" s="3">
         <v>97.818787979184094</v>
       </c>
-      <c r="F54" s="3">
-        <v>97.818787979184094</v>
+      <c r="F54" s="19">
+        <v>2119.0509743585403</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1879,8 +2050,8 @@
       <c r="E55" s="3">
         <v>94.807376164107922</v>
       </c>
-      <c r="F55" s="3">
-        <v>94.807376164107922</v>
+      <c r="F55" s="19">
+        <v>2087.5270997460375</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1899,8 +2070,8 @@
       <c r="E56" s="3">
         <v>667.30111616332556</v>
       </c>
-      <c r="F56" s="3">
-        <v>667.30111616332556</v>
+      <c r="F56" s="19">
+        <v>160.11870977314564</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1919,8 +2090,8 @@
       <c r="E57" s="3">
         <v>639.04043976818912</v>
       </c>
-      <c r="F57" s="3">
-        <v>639.04043976818912</v>
+      <c r="F57" s="19">
+        <v>145.37928075937617</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1939,8 +2110,8 @@
       <c r="E58" s="3">
         <v>650.13694425284223</v>
       </c>
-      <c r="F58" s="3">
-        <v>650.13694425284223</v>
+      <c r="F58" s="19">
+        <v>134.10238255287024</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1959,8 +2130,8 @@
       <c r="E59" s="3">
         <v>639.17414255305914</v>
       </c>
-      <c r="F59" s="3">
-        <v>639.17414255305914</v>
+      <c r="F59" s="19">
+        <v>133.89204502113913</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1979,8 +2150,8 @@
       <c r="E60" s="3">
         <v>607.77430272339438</v>
       </c>
-      <c r="F60" s="3">
-        <v>607.77430272339438</v>
+      <c r="F60" s="19">
+        <v>125.98505678904957</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1999,8 +2170,8 @@
       <c r="E61" s="3">
         <v>613.93962901934947</v>
       </c>
-      <c r="F61" s="3">
-        <v>613.93962901934947</v>
+      <c r="F61" s="19">
+        <v>121.27069149601205</v>
       </c>
     </row>
   </sheetData>
